--- a/2017_HolidayChallenge.xlsx
+++ b/2017_HolidayChallenge.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Rowing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="20832" windowHeight="8496"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="18690" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -89,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Green]0_);[Red]\(0\)"/>
   </numFmts>
@@ -186,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,26 +214,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,23 +249,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,19 +428,19 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H14" sqref="H11:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,7 +516,7 @@
         <v>12538</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -590,7 +551,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -625,7 +586,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -660,7 +621,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -689,7 +650,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -702,20 +663,23 @@
       <c r="D7">
         <v>3000</v>
       </c>
+      <c r="E7">
+        <v>3418</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3418</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="2"/>
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -728,13 +692,16 @@
       <c r="D8">
         <v>3000</v>
       </c>
+      <c r="E8">
+        <v>3051</v>
+      </c>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3051</v>
       </c>
       <c r="J8">
         <f>SUM(H2:H8)</f>
@@ -742,18 +709,18 @@
       </c>
       <c r="K8">
         <f>SUM(I2:I8)</f>
-        <v>50628</v>
+        <v>57097</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>-3000</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2">
         <f>K8-J8</f>
-        <v>10128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -766,23 +733,29 @@
       <c r="D9">
         <v>3000</v>
       </c>
+      <c r="E9">
+        <v>3057</v>
+      </c>
       <c r="F9">
         <v>4500</v>
       </c>
+      <c r="G9">
+        <v>5022</v>
+      </c>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8079</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -795,6 +768,9 @@
       <c r="D10">
         <v>3000</v>
       </c>
+      <c r="E10">
+        <v>3072</v>
+      </c>
       <c r="F10">
         <v>2500</v>
       </c>
@@ -804,14 +780,14 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-5500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-2428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -840,7 +816,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -869,7 +845,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -898,7 +874,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -924,7 +900,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -951,7 +927,7 @@
       </c>
       <c r="K15">
         <f>SUM(I9:I15)</f>
-        <v>0</v>
+        <v>11151</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
@@ -959,10 +935,10 @@
       </c>
       <c r="M15" s="2">
         <f>K15-J15</f>
-        <v>-45000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-33849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -991,7 +967,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1020,7 +996,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1049,7 +1025,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1078,7 +1054,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1107,7 +1083,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1133,7 +1109,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1171,7 +1147,7 @@
         <v>-45000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1200,7 +1176,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1229,7 +1205,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1258,7 +1234,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1287,7 +1263,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1316,7 +1292,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1342,7 +1318,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1380,7 +1356,7 @@
         <v>-45000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1409,7 +1385,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1438,7 +1414,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1467,7 +1443,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1496,7 +1472,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1482,7 @@
       </c>
       <c r="I35">
         <f>SUM(I2:I34)</f>
-        <v>50628</v>
+        <v>68248</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1533,7 +1509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2017_HolidayChallenge.xlsx
+++ b/2017_HolidayChallenge.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Rowing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="18690" windowHeight="8490"/>
+    <workbookView xWindow="480" yWindow="396" windowWidth="18696" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -84,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Green]0_);[Red]\(0\)"/>
   </numFmts>
@@ -181,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +219,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,19 +467,19 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H11:H14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,7 +555,7 @@
         <v>12538</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,7 +590,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -586,7 +625,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -621,7 +660,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -650,7 +689,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -679,7 +718,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -720,7 +759,7 @@
         <v>16597</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -755,7 +794,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -774,20 +813,23 @@
       <c r="F10">
         <v>2500</v>
       </c>
+      <c r="G10">
+        <v>3533</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>3072</v>
+        <v>6605</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>-2428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -800,23 +842,29 @@
       <c r="D11">
         <v>3000</v>
       </c>
+      <c r="E11">
+        <v>3535</v>
+      </c>
       <c r="F11">
         <v>4500</v>
       </c>
+      <c r="G11">
+        <v>5052</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8587</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="2"/>
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -829,23 +877,29 @@
       <c r="D12">
         <v>3000</v>
       </c>
+      <c r="E12">
+        <v>3570</v>
+      </c>
       <c r="F12">
         <v>8000</v>
       </c>
+      <c r="G12">
+        <v>13036</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16606</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="2"/>
-        <v>-11000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -858,6 +912,9 @@
       <c r="D13">
         <v>3000</v>
       </c>
+      <c r="E13">
+        <v>3564</v>
+      </c>
       <c r="F13">
         <v>4500</v>
       </c>
@@ -867,14 +924,14 @@
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3564</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-3936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -900,7 +957,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -927,7 +984,7 @@
       </c>
       <c r="K15">
         <f>SUM(I9:I15)</f>
-        <v>11151</v>
+        <v>43441</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
@@ -935,10 +992,10 @@
       </c>
       <c r="M15" s="2">
         <f>K15-J15</f>
-        <v>-33849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-1559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -967,7 +1024,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -996,7 +1053,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1025,7 +1082,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1054,7 +1111,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1083,7 +1140,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1109,7 +1166,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1147,7 +1204,7 @@
         <v>-45000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1176,7 +1233,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1205,7 +1262,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1234,7 +1291,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1263,7 +1320,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1292,7 +1349,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1318,7 +1375,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1356,7 +1413,7 @@
         <v>-45000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1385,7 +1442,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1414,7 +1471,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1443,7 +1500,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1472,7 +1529,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1539,7 @@
       </c>
       <c r="I35">
         <f>SUM(I2:I34)</f>
-        <v>68248</v>
+        <v>100538</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1509,7 +1566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2017_HolidayChallenge.xlsx
+++ b/2017_HolidayChallenge.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Rowing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="18696" windowHeight="8496"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="18690" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Week</t>
   </si>
@@ -84,12 +79,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total to Date</t>
+  </si>
+  <si>
+    <t>Actual to Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Green]0_);[Red]\(0\)"/>
   </numFmts>
@@ -186,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,26 +220,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,23 +255,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,22 +431,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +487,14 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,7 +529,7 @@
         <v>12538</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -590,7 +564,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -625,7 +599,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -660,7 +634,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -689,7 +663,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -718,7 +692,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -759,7 +733,7 @@
         <v>16597</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -794,7 +768,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -829,7 +803,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -864,7 +838,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -899,7 +873,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -918,20 +892,23 @@
       <c r="F13">
         <v>4500</v>
       </c>
+      <c r="G13">
+        <v>5078</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>3564</v>
+        <v>8642</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="2"/>
-        <v>-3936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -944,20 +921,23 @@
       <c r="D14">
         <v>3000</v>
       </c>
+      <c r="E14">
+        <v>3132</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -970,13 +950,16 @@
       <c r="D15">
         <v>3000</v>
       </c>
+      <c r="E15">
+        <v>3368</v>
+      </c>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3368</v>
       </c>
       <c r="J15">
         <f>SUM(H9:H15)</f>
@@ -984,18 +967,26 @@
       </c>
       <c r="K15">
         <f>SUM(I9:I15)</f>
-        <v>43441</v>
+        <v>55019</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>-3000</v>
+        <v>368</v>
       </c>
       <c r="M15" s="2">
         <f>K15-J15</f>
-        <v>-1559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10019</v>
+      </c>
+      <c r="N15">
+        <f>J8+J15</f>
+        <v>85500</v>
+      </c>
+      <c r="O15">
+        <f>K8+K15</f>
+        <v>112116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1008,23 +999,29 @@
       <c r="D16">
         <v>3000</v>
       </c>
+      <c r="E16">
+        <v>3360</v>
+      </c>
       <c r="F16">
         <v>4500</v>
       </c>
+      <c r="G16">
+        <v>5119</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8479</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1037,6 +1034,9 @@
       <c r="D17">
         <v>3000</v>
       </c>
+      <c r="E17">
+        <v>4085</v>
+      </c>
       <c r="F17">
         <v>2500</v>
       </c>
@@ -1046,14 +1046,14 @@
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4085</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>-5500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-1415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="K22">
         <f>SUM(I16:I22)</f>
-        <v>0</v>
+        <v>12564</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="2"/>
@@ -1201,10 +1201,18 @@
       </c>
       <c r="M22" s="2">
         <f>K22-J22</f>
-        <v>-45000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-32436</v>
+      </c>
+      <c r="N22">
+        <f>N15+J22</f>
+        <v>130500</v>
+      </c>
+      <c r="O22">
+        <f>O15+IF(K22=0,J22,K22)</f>
+        <v>124680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1412,8 +1420,16 @@
         <f>K29-J29</f>
         <v>-45000</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <f>N22+J29</f>
+        <v>175500</v>
+      </c>
+      <c r="O29">
+        <f>O22+IF(K29=0,J29,K29)</f>
+        <v>169680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1442,7 +1458,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1471,7 +1487,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1500,7 +1516,7 @@
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1529,7 +1545,7 @@
         <v>-11000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1539,7 +1555,7 @@
       </c>
       <c r="I35">
         <f>SUM(I2:I34)</f>
-        <v>100538</v>
+        <v>124680</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1566,7 +1582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
